--- a/south.xlsx
+++ b/south.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kylef\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107F4FA7-F68F-4F98-88FB-D9D59C53863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D209EB5-6350-4A3A-B4D5-4C8C9D25421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{546E7D0B-DF39-4CEF-96D3-F2406D5BD488}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve">Total </t>
   </si>
@@ -51,6 +51,255 @@
   </si>
   <si>
     <t xml:space="preserve">$500,000 and over </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021Q3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021Q4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022Q2 </t>
+  </si>
+  <si>
+    <t>Period</t>
   </si>
 </sst>
 </file>
@@ -135,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -148,6 +397,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -464,1676 +716,1925 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B23D6FD-DED0-4990-AADD-778843A28226}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
         <v>112</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>47</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>30</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>23</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
         <v>116</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>47</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>30</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>22</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>14</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
         <v>120</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>53</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>22</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
         <v>102</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>40</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>27</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>12</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
         <v>123</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>49</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>31</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>25</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>14</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
         <v>138</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>56</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>34</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>27</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>15</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
         <v>137</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>53</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>37</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>28</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
         <v>114</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>41</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>31</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>24</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
         <v>151</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>52</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>37</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>35</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
         <v>150</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>54</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>37</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>33</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>19</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
         <v>133</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>46</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>31</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>30</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
         <v>127</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>37</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>32</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>31</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>18</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
         <v>168</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>49</v>
-      </c>
-      <c r="C14" s="3">
-        <v>41</v>
       </c>
       <c r="D14" s="3">
         <v>41</v>
       </c>
       <c r="E14" s="3">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3">
         <v>25</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
         <v>164</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>46</v>
-      </c>
-      <c r="C15" s="3">
-        <v>41</v>
       </c>
       <c r="D15" s="3">
         <v>41</v>
       </c>
       <c r="E15" s="3">
+        <v>41</v>
+      </c>
+      <c r="F15" s="3">
         <v>26</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
         <v>161</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>46</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>41</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>36</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>27</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3">
         <v>146</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>42</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>31</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>40</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3">
         <v>148</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>34</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>37</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>41</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3">
         <v>157</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>36</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>38</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>44</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>29</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3">
         <v>136</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>34</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>37</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>35</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>21</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
         <v>118</v>
-      </c>
-      <c r="B21" s="3">
-        <v>28</v>
       </c>
       <c r="C21" s="3">
         <v>28</v>
       </c>
       <c r="D21" s="3">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3">
         <v>33</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3">
         <v>114</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>28</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>33</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3">
         <v>123</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>25</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>32</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>34</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3">
         <v>94</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C24" s="3">
         <v>20</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>22</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>30</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3">
         <v>81</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C25" s="3">
         <v>16</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>20</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>22</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>17</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3">
         <v>78</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C26" s="3">
         <v>18</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>19</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>24</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3">
         <v>78</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C27" s="3">
         <v>17</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>19</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>22</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3">
         <v>65</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>15</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>16</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>18</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>12</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3">
         <v>46</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>11</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>14</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>13</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>6</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3">
         <v>48</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>12</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>14</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="3">
         <v>13</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>7</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3">
         <v>56</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>11</v>
-      </c>
-      <c r="C31" s="3">
-        <v>16</v>
       </c>
       <c r="D31" s="3">
         <v>16</v>
       </c>
       <c r="E31" s="3">
+        <v>16</v>
+      </c>
+      <c r="F31" s="3">
         <v>9</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3">
         <v>53</v>
       </c>
-      <c r="B32" s="3">
+      <c r="C32" s="3">
         <v>13</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>16</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>13</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3">
         <v>45</v>
-      </c>
-      <c r="B33" s="3">
-        <v>12</v>
       </c>
       <c r="C33" s="3">
         <v>12</v>
       </c>
       <c r="D33" s="3">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3">
         <v>13</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3">
         <v>45</v>
       </c>
-      <c r="B34" s="3">
+      <c r="C34" s="3">
         <v>13</v>
-      </c>
-      <c r="C34" s="3">
-        <v>12</v>
       </c>
       <c r="D34" s="3">
         <v>12</v>
       </c>
       <c r="E34" s="3">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3">
         <v>6</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3">
         <v>51</v>
       </c>
-      <c r="B35" s="3">
+      <c r="C35" s="3">
         <v>12</v>
-      </c>
-      <c r="C35" s="3">
-        <v>15</v>
       </c>
       <c r="D35" s="3">
         <v>15</v>
       </c>
       <c r="E35" s="3">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3">
         <v>8</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3">
         <v>41</v>
       </c>
-      <c r="B36" s="3">
+      <c r="C36" s="3">
         <v>8</v>
-      </c>
-      <c r="C36" s="3">
-        <v>12</v>
       </c>
       <c r="D36" s="3">
         <v>12</v>
       </c>
       <c r="E36" s="3">
+        <v>12</v>
+      </c>
+      <c r="F36" s="3">
         <v>7</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3">
         <v>37</v>
       </c>
-      <c r="B37" s="3">
+      <c r="C37" s="3">
         <v>9</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="3">
         <v>10</v>
-      </c>
-      <c r="D37" s="3">
-        <v>8</v>
       </c>
       <c r="E37" s="3">
         <v>8</v>
       </c>
       <c r="F37" s="3">
+        <v>8</v>
+      </c>
+      <c r="G37" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3">
         <v>40</v>
       </c>
-      <c r="B38" s="3">
+      <c r="C38" s="3">
         <v>9</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D38" s="3">
         <v>10</v>
       </c>
-      <c r="D38" s="3">
+      <c r="E38" s="3">
         <v>11</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>8</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3">
         <v>47</v>
       </c>
-      <c r="B39" s="3">
+      <c r="C39" s="3">
         <v>10</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="3">
         <v>12</v>
       </c>
-      <c r="D39" s="3">
+      <c r="E39" s="3">
         <v>14</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>9</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3">
         <v>41</v>
-      </c>
-      <c r="B40" s="3">
-        <v>9</v>
       </c>
       <c r="C40" s="3">
         <v>9</v>
       </c>
       <c r="D40" s="3">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3">
         <v>13</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>7</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="3">
+      <c r="C41" s="3">
         <v>9</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="3">
         <v>10</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E41" s="3">
         <v>11</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="3">
         <v>50</v>
       </c>
-      <c r="B42" s="3">
+      <c r="C42" s="3">
         <v>10</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
         <v>12</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E42" s="3">
         <v>15</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3">
         <v>51</v>
       </c>
-      <c r="B43" s="3">
+      <c r="C43" s="3">
         <v>11</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D43" s="3">
         <v>13</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E43" s="3">
         <v>14</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="3">
         <v>47</v>
       </c>
-      <c r="B44" s="3">
+      <c r="C44" s="3">
         <v>8</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D44" s="3">
         <v>11</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E44" s="3">
         <v>13</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="3">
         <v>47</v>
       </c>
-      <c r="B45" s="3">
+      <c r="C45" s="3">
         <v>7</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="3">
         <v>10</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E45" s="3">
         <v>14</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3">
         <v>56</v>
       </c>
-      <c r="B46" s="3">
+      <c r="C46" s="3">
         <v>9</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <v>12</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="3">
         <v>18</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3">
         <v>69</v>
       </c>
-      <c r="B47" s="3">
+      <c r="C47" s="3">
         <v>7</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D47" s="3">
         <v>14</v>
       </c>
-      <c r="D47" s="3">
+      <c r="E47" s="3">
         <v>24</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3">
         <v>50</v>
       </c>
-      <c r="B48" s="3">
+      <c r="C48" s="3">
         <v>7</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D48" s="3">
         <v>12</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E48" s="3">
         <v>15</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3">
         <v>58</v>
       </c>
-      <c r="B49" s="3">
+      <c r="C49" s="3">
         <v>5</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>15</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E49" s="3">
         <v>18</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3">
         <v>63</v>
       </c>
-      <c r="B50" s="3">
+      <c r="C50" s="3">
         <v>5</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D50" s="3">
         <v>14</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E50" s="3">
         <v>20</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>18</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3">
         <v>63</v>
       </c>
-      <c r="B51" s="3">
+      <c r="C51" s="3">
         <v>5</v>
       </c>
-      <c r="C51" s="3">
+      <c r="D51" s="3">
         <v>13</v>
-      </c>
-      <c r="D51" s="3">
-        <v>19</v>
       </c>
       <c r="E51" s="3">
         <v>19</v>
       </c>
       <c r="F51" s="3">
+        <v>19</v>
+      </c>
+      <c r="G51" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3">
         <v>58</v>
       </c>
-      <c r="B52" s="3">
+      <c r="C52" s="3">
         <v>6</v>
       </c>
-      <c r="C52" s="3">
+      <c r="D52" s="3">
         <v>13</v>
       </c>
-      <c r="D52" s="3">
+      <c r="E52" s="3">
         <v>19</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="3">
         <v>58</v>
       </c>
-      <c r="B53" s="3">
+      <c r="C53" s="3">
         <v>4</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="3">
         <v>11</v>
       </c>
-      <c r="D53" s="3">
+      <c r="E53" s="3">
         <v>19</v>
       </c>
-      <c r="E53" s="3">
+      <c r="F53" s="3">
         <v>17</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3">
         <v>77</v>
       </c>
-      <c r="B54" s="3">
+      <c r="C54" s="3">
         <v>4</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D54" s="3">
         <v>15</v>
       </c>
-      <c r="D54" s="3">
+      <c r="E54" s="3">
         <v>29</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="3">
         <v>78</v>
       </c>
-      <c r="B55" s="3">
+      <c r="C55" s="3">
         <v>4</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="3">
         <v>17</v>
       </c>
-      <c r="D55" s="3">
+      <c r="E55" s="3">
         <v>27</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <v>21</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="3">
         <v>68</v>
       </c>
-      <c r="B56" s="3">
+      <c r="C56" s="3">
         <v>5</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="3">
         <v>13</v>
       </c>
-      <c r="D56" s="3">
+      <c r="E56" s="3">
         <v>21</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>22</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="3">
         <v>63</v>
       </c>
-      <c r="B57" s="3">
+      <c r="C57" s="3">
         <v>4</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="3">
         <v>9</v>
       </c>
-      <c r="D57" s="3">
+      <c r="E57" s="3">
         <v>23</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="3">
         <v>77</v>
       </c>
-      <c r="B58" s="3">
+      <c r="C58" s="3">
         <v>5</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="3">
         <v>13</v>
       </c>
-      <c r="D58" s="3">
+      <c r="E58" s="3">
         <v>26</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="3">
         <v>88</v>
       </c>
-      <c r="B59" s="3">
+      <c r="C59" s="3">
         <v>4</v>
       </c>
-      <c r="C59" s="3">
+      <c r="D59" s="3">
         <v>18</v>
       </c>
-      <c r="D59" s="3">
+      <c r="E59" s="3">
         <v>28</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="3">
         <v>83</v>
       </c>
-      <c r="B60" s="3">
+      <c r="C60" s="3">
         <v>5</v>
       </c>
-      <c r="C60" s="3">
+      <c r="D60" s="3">
         <v>14</v>
       </c>
-      <c r="D60" s="3">
+      <c r="E60" s="3">
         <v>27</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="3">
         <v>70</v>
       </c>
-      <c r="B61" s="3">
+      <c r="C61" s="3">
         <v>3</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="3">
         <v>13</v>
       </c>
-      <c r="D61" s="3">
+      <c r="E61" s="3">
         <v>23</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="3">
         <v>87</v>
       </c>
-      <c r="B62" s="3">
+      <c r="C62" s="3">
         <v>5</v>
       </c>
-      <c r="C62" s="3">
+      <c r="D62" s="3">
         <v>13</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="3">
         <v>30</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="3">
         <v>93</v>
       </c>
-      <c r="B63" s="3">
+      <c r="C63" s="3">
         <v>4</v>
       </c>
-      <c r="C63" s="3">
+      <c r="D63" s="3">
         <v>12</v>
       </c>
-      <c r="D63" s="3">
+      <c r="E63" s="3">
         <v>35</v>
       </c>
-      <c r="E63" s="3">
+      <c r="F63" s="3">
         <v>31</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="3">
         <v>79</v>
       </c>
-      <c r="B64" s="3">
+      <c r="C64" s="3">
         <v>4</v>
       </c>
-      <c r="C64" s="3">
+      <c r="D64" s="3">
         <v>11</v>
       </c>
-      <c r="D64" s="3">
+      <c r="E64" s="3">
         <v>26</v>
       </c>
-      <c r="E64" s="3">
+      <c r="F64" s="3">
         <v>28</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G64" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="3">
         <v>80</v>
       </c>
-      <c r="B65" s="3">
+      <c r="C65" s="3">
         <v>3</v>
       </c>
-      <c r="C65" s="3">
+      <c r="D65" s="3">
         <v>9</v>
       </c>
-      <c r="D65" s="3">
+      <c r="E65" s="3">
         <v>28</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="3">
         <v>29</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="3">
         <v>92</v>
       </c>
-      <c r="B66" s="3">
+      <c r="C66" s="3">
         <v>4</v>
       </c>
-      <c r="C66" s="3">
+      <c r="D66" s="3">
         <v>10</v>
       </c>
-      <c r="D66" s="3">
+      <c r="E66" s="3">
         <v>33</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="3">
         <v>100</v>
       </c>
-      <c r="B67" s="3">
+      <c r="C67" s="3">
         <v>5</v>
       </c>
-      <c r="C67" s="3">
+      <c r="D67" s="3">
         <v>14</v>
       </c>
-      <c r="D67" s="3">
+      <c r="E67" s="3">
         <v>36</v>
       </c>
-      <c r="E67" s="3">
+      <c r="F67" s="3">
         <v>33</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="3">
         <v>81</v>
       </c>
-      <c r="B68" s="3">
+      <c r="C68" s="3">
         <v>3</v>
       </c>
-      <c r="C68" s="3">
+      <c r="D68" s="3">
         <v>9</v>
       </c>
-      <c r="D68" s="3">
+      <c r="E68" s="3">
         <v>30</v>
       </c>
-      <c r="E68" s="3">
+      <c r="F68" s="3">
         <v>28</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G68" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="3">
         <v>75</v>
       </c>
-      <c r="B69" s="3">
+      <c r="C69" s="3">
         <v>4</v>
       </c>
-      <c r="C69" s="3">
+      <c r="D69" s="3">
         <v>7</v>
       </c>
-      <c r="D69" s="3">
+      <c r="E69" s="3">
         <v>29</v>
       </c>
-      <c r="E69" s="3">
+      <c r="F69" s="3">
         <v>26</v>
       </c>
-      <c r="F69" s="3">
+      <c r="G69" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="3">
         <v>100</v>
       </c>
-      <c r="B70" s="3">
+      <c r="C70" s="3">
         <v>4</v>
       </c>
-      <c r="C70" s="3">
+      <c r="D70" s="3">
         <v>10</v>
       </c>
-      <c r="D70" s="3">
+      <c r="E70" s="3">
         <v>45</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>32</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="3">
         <v>108</v>
       </c>
-      <c r="B71" s="3">
+      <c r="C71" s="3">
         <v>2</v>
       </c>
-      <c r="C71" s="3">
+      <c r="D71" s="3">
         <v>10</v>
       </c>
-      <c r="D71" s="3">
+      <c r="E71" s="3">
         <v>44</v>
       </c>
-      <c r="E71" s="3">
+      <c r="F71" s="3">
         <v>39</v>
       </c>
-      <c r="F71" s="3">
+      <c r="G71" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="3">
         <v>102</v>
       </c>
-      <c r="B72" s="3">
+      <c r="C72" s="3">
         <v>2</v>
       </c>
-      <c r="C72" s="3">
+      <c r="D72" s="3">
         <v>11</v>
       </c>
-      <c r="D72" s="3">
+      <c r="E72" s="3">
         <v>42</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>34</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="3">
         <v>89</v>
       </c>
-      <c r="B73" s="3">
+      <c r="C73" s="3">
         <v>2</v>
       </c>
-      <c r="C73" s="3">
+      <c r="D73" s="3">
         <v>8</v>
       </c>
-      <c r="D73" s="3">
+      <c r="E73" s="3">
         <v>37</v>
       </c>
-      <c r="E73" s="3">
+      <c r="F73" s="3">
         <v>31</v>
       </c>
-      <c r="F73" s="3">
+      <c r="G73" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="3">
         <v>99</v>
       </c>
-      <c r="B74" s="3">
+      <c r="C74" s="3">
         <v>3</v>
       </c>
-      <c r="C74" s="3">
+      <c r="D74" s="3">
         <v>11</v>
       </c>
-      <c r="D74" s="3">
+      <c r="E74" s="3">
         <v>42</v>
       </c>
-      <c r="E74" s="3">
+      <c r="F74" s="3">
         <v>35</v>
       </c>
-      <c r="F74" s="3">
+      <c r="G74" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="3">
         <v>113</v>
       </c>
-      <c r="B75" s="3">
+      <c r="C75" s="3">
         <v>3</v>
       </c>
-      <c r="C75" s="3">
+      <c r="D75" s="3">
         <v>13</v>
       </c>
-      <c r="D75" s="3">
+      <c r="E75" s="3">
         <v>44</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="3">
         <v>43</v>
       </c>
-      <c r="F75" s="3">
+      <c r="G75" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="3">
         <v>143</v>
       </c>
-      <c r="B76" s="3">
+      <c r="C76" s="3">
         <v>0</v>
       </c>
-      <c r="C76" s="3">
+      <c r="D76" s="3">
         <v>12</v>
       </c>
-      <c r="D76" s="3">
+      <c r="E76" s="3">
         <v>62</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="3">
         <v>119</v>
       </c>
-      <c r="B77" s="3">
+      <c r="C77" s="3">
         <v>0</v>
       </c>
-      <c r="C77" s="3">
+      <c r="D77" s="3">
         <v>6</v>
       </c>
-      <c r="D77" s="3">
+      <c r="E77" s="3">
         <v>43</v>
       </c>
-      <c r="E77" s="3">
+      <c r="F77" s="3">
         <v>56</v>
       </c>
-      <c r="F77" s="3">
+      <c r="G77" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="3">
         <v>136</v>
       </c>
-      <c r="B78" s="3">
+      <c r="C78" s="3">
         <v>1</v>
       </c>
-      <c r="C78" s="3">
+      <c r="D78" s="3">
         <v>5</v>
       </c>
-      <c r="D78" s="3">
+      <c r="E78" s="3">
         <v>49</v>
       </c>
-      <c r="E78" s="3">
+      <c r="F78" s="3">
         <v>62</v>
       </c>
-      <c r="F78" s="3">
+      <c r="G78" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="3">
         <v>113</v>
       </c>
-      <c r="B79" s="3">
+      <c r="C79" s="3">
         <v>0</v>
       </c>
-      <c r="C79" s="3">
+      <c r="D79" s="3">
         <v>2</v>
       </c>
-      <c r="D79" s="3">
+      <c r="E79" s="3">
         <v>33</v>
       </c>
-      <c r="E79" s="3">
+      <c r="F79" s="3">
         <v>57</v>
       </c>
-      <c r="F79" s="3">
+      <c r="G79" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="3">
         <v>107</v>
       </c>
-      <c r="B80" s="3">
+      <c r="C80" s="3">
         <v>0</v>
       </c>
-      <c r="C80" s="3">
+      <c r="D80" s="3">
         <v>1</v>
       </c>
-      <c r="D80" s="3">
+      <c r="E80" s="3">
         <v>30</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F80" s="3">
         <v>51</v>
       </c>
-      <c r="F80" s="3">
+      <c r="G80" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="3">
         <v>98</v>
-      </c>
-      <c r="B81" s="3">
-        <v>1</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="3">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3">
         <v>19</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>55</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="3">
         <v>120</v>
       </c>
-      <c r="B82" s="3">
+      <c r="C82" s="3">
         <v>0</v>
       </c>
-      <c r="C82" s="3">
+      <c r="D82" s="3">
         <v>1</v>
       </c>
-      <c r="D82" s="3">
+      <c r="E82" s="3">
         <v>20</v>
       </c>
-      <c r="E82" s="3">
+      <c r="F82" s="3">
         <v>70</v>
       </c>
-      <c r="F82" s="3">
+      <c r="G82" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="3">
         <v>98</v>
-      </c>
-      <c r="B83" s="3">
-        <v>0</v>
       </c>
       <c r="C83" s="3">
         <v>0</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>13</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>59</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25</v>
       </c>
     </row>
